--- a/TIMES-NZ/VT_SI_OTH_V4.xlsx
+++ b/TIMES-NZ/VT_SI_OTH_V4.xlsx
@@ -27695,52 +27695,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMCOA</t>
+          <t>RESCOA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COMNGA</t>
+          <t>RESNGA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COMLPG</t>
+          <t>RESLPG</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>COMDSL</t>
+          <t>RESDSL</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>COMBIG</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>COMGEO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>COMFOL</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>COMPET</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>COMWOD</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>COMPLT</t>
+          <t>RESWOD</t>
         </is>
       </c>
     </row>
@@ -27775,36 +27750,11 @@
           <t>kt/PJ</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>kt/PJ</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COMCO2</t>
+          <t>RESCO2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -27825,16 +27775,6 @@
       <c r="E4" t="inlineStr">
         <is>
           <t>69.69</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>72.91</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>66.58</t>
         </is>
       </c>
     </row>
@@ -27853,47 +27793,52 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGRCOA</t>
+          <t>COMCOA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AGRDSL</t>
+          <t>COMNGA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AGRPET</t>
+          <t>COMLPG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AGRFOL</t>
+          <t>COMDSL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AGRLPG</t>
+          <t>COMBIG</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>AGRNGA</t>
+          <t>COMGEO</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AGRGEO</t>
+          <t>COMFOL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AGRWOD</t>
+          <t>COMPET</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>AGRPLT</t>
+          <t>COMWOD</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>COMPLT</t>
         </is>
       </c>
     </row>
@@ -27948,11 +27893,16 @@
           <t>kt/PJ</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGRCO2</t>
+          <t>COMCO2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -27962,27 +27912,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>69.69</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>66.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>53.96</t>
         </is>
       </c>
     </row>
@@ -28001,27 +27951,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>RESCOA</t>
+          <t>AGRCOA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RESNGA</t>
+          <t>AGRDSL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>RESLPG</t>
+          <t>AGRPET</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>RESDSL</t>
+          <t>AGRFOL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>RESWOD</t>
+          <t>AGRLPG</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AGRNGA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AGRGEO</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>AGRWOD</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>AGRPLT</t>
         </is>
       </c>
     </row>
@@ -28056,11 +28026,31 @@
           <t>kt/PJ</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kt/PJ</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RESCO2</t>
+          <t>AGRCO2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -28070,17 +28060,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>53.96</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>60.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>69.69</t>
         </is>
       </c>
     </row>
@@ -35055,1446 +35055,1446 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CommName</t>
+          <t>TechName</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Demand~2018</t>
+          <t>Comm-IN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Demand~2020</t>
+          <t>Comm-OUT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Demand~2025</t>
+          <t>Share-I~UP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Demand~2030</t>
+          <t>STOCK</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Demand~2040</t>
+          <t>EFF</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Demand~2050</t>
+          <t>LIFE</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Demand~2060</t>
+          <t>INVCOST</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FIXOM</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>VAROM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>R_DDW-SH</t>
+          <t>*Technology Name</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Input Commodity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Output Commodity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Input Share</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Existing Installed Capacity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Efficiency</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Lifetime</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.134</t>
+          <t>Capital costs</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Fixed  O&amp;M</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Variable O&amp;M</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R_DDW-WH</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.324</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3.324</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.324</t>
+          <t>*Units</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.324</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.324</t>
+          <t>PJa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.324</t>
+          <t>Years</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.324</t>
+          <t>MNZD/Pja</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>MNZD/Pja</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>MNZD/PJ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R_DDW-CK</t>
+          <t>FTE_RESCOA_00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>RESCOA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.61</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.61</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>R_DDW-RF</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.801</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1.801</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.801</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.801</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.801</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.801</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1.801</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R_DDW-CD</t>
+          <t>FTE_RESNGA_00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>NGA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.052</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.052</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.052</t>
+          <t>RESNGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.052</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.052</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>R_DDW-SC</t>
+          <t>FTE_RESLPG_00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.371</t>
+          <t>LPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.371</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.371</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.371</t>
+          <t>RESLPG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.371</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.371</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.371</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R_DDW-CW</t>
+          <t>FTE_RESDSL_00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.169</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.169</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.169</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.169</t>
+          <t>RESDSL</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.169</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.169</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.169</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R_DDW-DW</t>
+          <t>FTE_RESWOD_00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>WOD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.056</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.056</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.056</t>
+          <t>RESWOD</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.056</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.056</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R_DDW-LT</t>
+          <t>FTE_RESGEO_00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.174</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.174</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.174</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.174</t>
+          <t>RESGEO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.174</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.174</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.174</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R_DDW-OTH</t>
+          <t>FTE_RESSOL_00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.654</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.654</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.654</t>
+          <t>RESSOL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.654</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.654</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.654</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>R_DDW-MPS</t>
+          <t>FTE_RESPET_00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.051</t>
+          <t>RESPET</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.051</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>R_DDW-MPM</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.92</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R_JDW-SH</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.365</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>1.365</t>
+          <t>~FI_T</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R_JDW-WH</t>
+          <t>CommName</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2020</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2025</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2030</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2040</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2050</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>Demand~2060</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R_JDW-CK</t>
+          <t>R_DDW-SH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>10.134</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R_JDW-RF</t>
+          <t>R_DDW-WH</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.395</t>
+          <t>3.324</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R_JDW-CD</t>
+          <t>R_DDW-CK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.61</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R_JDW-SC</t>
+          <t>R_DDW-RF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>1.801</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R_JDW-CW</t>
+          <t>R_DDW-CD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.052</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R_JDW-DW</t>
+          <t>R_DDW-SC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.371</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R_JDW-LT</t>
+          <t>R_DDW-CW</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.169</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>R_JDW-OTH</t>
+          <t>R_DDW-DW</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.143</t>
+          <t>0.056</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>R_JDW-MPS</t>
+          <t>R_DDW-LT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.011</t>
+          <t>0.174</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R_JDW-MPM</t>
+          <t>R_DDW-OTH</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.654</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>R_DDW-MPS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.051</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>~FI_T</t>
+          <t>R_DDW-MPM</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TechName</t>
+          <t>R_JDW-SH</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comm-IN</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Comm-OUT</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Share-I~UP</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>STOCK</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>EFF</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LIFE</t>
+          <t>1.365</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>INVCOST</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>FIXOM</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>VAROM</t>
+          <t>1.365</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>*Technology Name</t>
+          <t>R_JDW-WH</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Input Commodity</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Output Commodity</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Input Share</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Existing Installed Capacity</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Efficiency</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lifetime</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Capital costs</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Fixed  O&amp;M</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Variable O&amp;M</t>
+          <t>0.762</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>*Units</t>
+          <t>R_JDW-CK</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.134</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PJa</t>
+          <t>0.134</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.134</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Years</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>MNZD/Pja</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>MNZD/Pja</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>MNZD/PJ</t>
+          <t>0.134</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FTE_RESCOA_00</t>
+          <t>R_JDW-RF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RESCOA</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.395</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.395</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.395</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.395</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.395</t>
         </is>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>R_JDW-CD</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.011</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.011</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FTE_RESNGA_00</t>
+          <t>R_JDW-SC</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RESNGA</t>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.081</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>25</t>
+          <t>0.081</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.081</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FTE_RESLPG_00</t>
+          <t>R_JDW-CW</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LPG</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RESLPG</t>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.037</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.037</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FTE_RESDSL_00</t>
+          <t>R_JDW-DW</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RESDSL</t>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.012</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>0.92</t>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0.012</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FTE_RESWOD_00</t>
+          <t>R_JDW-LT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WOD</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RESWOD</t>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.035</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0.035</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FTE_RESGEO_00</t>
+          <t>R_JDW-OTH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RESGEO</t>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.143</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.143</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0.143</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FTE_RESSOL_00</t>
+          <t>R_JDW-MPS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RESSOL</t>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.011</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0.011</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FTE_RESPET_00</t>
+          <t>R_JDW-MPM</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>RESPET</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>0.92</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
